--- a/presentation/scheduling.xlsx
+++ b/presentation/scheduling.xlsx
@@ -1257,11 +1257,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="460716496"/>
-        <c:axId val="460717280"/>
+        <c:axId val="244156600"/>
+        <c:axId val="244156992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="460716496"/>
+        <c:axId val="244156600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2000"/>
@@ -1371,14 +1371,14 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460717280"/>
+        <c:crossAx val="244156992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="400"/>
         <c:minorUnit val="100"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="460717280"/>
+        <c:axId val="244156992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.30000000000000004"/>
@@ -1428,7 +1428,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="460716496"/>
+        <c:crossAx val="244156600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -1454,12 +1454,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -2601,8 +2596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
